--- a/SCF/files/导入发票模板_new.xlsx
+++ b/SCF/files/导入发票模板_new.xlsx
@@ -1177,32 +1177,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8216490753</t>
+          <t>8120569743</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>29748635</t>
+          <t>14790856</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vemJ7s立信电子传媒有限公司</t>
+          <t>ytEs5f九方网络有限公司</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9681</t>
+          <t>5491</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>598401</t>
+          <t>870132</t>
         </is>
       </c>
       <c r="H3" s="12" t="n">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2691375084</t>
+          <t>0951478263</t>
         </is>
       </c>
     </row>

--- a/SCF/files/导入发票模板_new.xlsx
+++ b/SCF/files/导入发票模板_new.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="9460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28130" windowHeight="12410" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="普票" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="专票" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -18,16 +19,39 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="166" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -35,13 +59,19 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54,7 +84,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -62,38 +100,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,8 +114,91 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -120,73 +211,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <color indexed="10"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="33">
@@ -198,37 +226,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,150 +400,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -393,11 +421,32 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,6 +461,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,50 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,15 +517,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -506,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -518,172 +537,196 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1098,125 +1141,122 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col width="16.3727272727273" customWidth="1" style="9" min="2" max="2"/>
-    <col width="14.8727272727273" customWidth="1" style="9" min="3" max="3"/>
-    <col width="15.2727272727273" customWidth="1" style="9" min="4" max="4"/>
-    <col width="16.2727272727273" customWidth="1" style="9" min="5" max="5"/>
-    <col width="14" customWidth="1" style="9" min="6" max="6"/>
-    <col width="18.5454545454545" customWidth="1" style="9" min="7" max="7"/>
-    <col width="11.2545454545455" customWidth="1" style="10" min="8" max="8"/>
-    <col width="13.1818181818182" customWidth="1" style="9" min="9" max="9"/>
+    <col width="12.3363636363636" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.7818181818182" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13.7818181818182" customWidth="1" style="3" min="3" max="3"/>
+    <col width="12.5545454545455" customWidth="1" style="15" min="4" max="4"/>
+    <col width="13.1090909090909" customWidth="1" style="3" min="5" max="5"/>
+    <col width="29.0909090909091" customWidth="1" style="3" min="6" max="6"/>
+    <col width="17.6636363636364" customWidth="1" style="3" min="7" max="7"/>
+    <col width="15.7818181818182" customWidth="1" style="16" min="8" max="8"/>
+    <col width="15.7818181818182" customWidth="1" style="17" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44" customHeight="1" s="9">
+    <row r="1" ht="118.05" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
-          <t>说明：①发票代码、发票号码、开票日期、校验码后六位四个字段必填；
-      ②发票代码须为10位或12位数字；发票号码必须为8位数字；验证码必须为6位；开票日期必须为日期格式。</t>
-        </is>
-      </c>
+          <t>发票类型：普票/专票，该字段必填；
+普票说明：发票代码、发票号码、开票日期、买方税号、校验码后六位 字段必填；
+专票说明：发票代码、发票号码、开票日期、买方税号、发票不含税金额 字段必填；
+发票代码须为10位或12位数字；发票号码必须为8位数字；验证码必须为6位；开票日期必须为日期格式。</t>
+        </is>
+      </c>
+      <c r="I1" s="14" t="n"/>
+      <c r="J1" s="14" t="n"/>
     </row>
-    <row r="2" customFormat="1" s="4">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
+    <row r="2" ht="25.05" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>发票类型</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>发票代码</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>发票号码</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>购买方</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="D2" s="18" t="inlineStr">
+        <is>
+          <t>开票日期</t>
+        </is>
+      </c>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>对账单号</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>买方税号</t>
+        </is>
+      </c>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>验证码（后六位）</t>
+        </is>
+      </c>
+      <c r="H2" s="19" t="inlineStr">
         <is>
           <t>发票不含税金额</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>发票含税金额</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>验证码（后六位）</t>
-        </is>
-      </c>
-      <c r="H2" s="11" t="inlineStr">
-        <is>
-          <t>开票日期</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>对账单号</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8120569743</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14790856</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ytEs5f九方网络有限公司</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5491</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6960</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>870132</t>
-        </is>
-      </c>
-      <c r="H3" s="12" t="n">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>普票</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>2563471980</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>01639275</t>
+        </is>
+      </c>
+      <c r="D3" s="15" t="n">
         <v>44806</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0951478263</t>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>91440300279446850J</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>91320600673032592M</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>724583</t>
+        </is>
+      </c>
+      <c r="H3" s="20" t="inlineStr">
+        <is>
+          <t>20684</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1229,77 +1269,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
-  <cols>
-    <col width="7.09090909090909" customWidth="1" style="9" min="1" max="1"/>
-    <col width="10.2727272727273" customWidth="1" style="9" min="2" max="2"/>
-    <col width="10.3636363636364" customWidth="1" style="9" min="3" max="3"/>
-    <col width="17.1818181818182" customWidth="1" style="9" min="4" max="4"/>
-    <col width="16.2727272727273" customWidth="1" style="9" min="5" max="5"/>
-    <col width="14" customWidth="1" style="9" min="6" max="6"/>
-    <col width="12.1818181818182" customWidth="1" style="9" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="44" customHeight="1" s="9">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>说明：①发票代码、发票号码、开票日期、发票不含税金额四个字段必填；
-      ②发票代码须为10位或12位数字；发票号码必须为8位数字；开票日期必须为日期格式。</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" customFormat="1" s="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>发票代码</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>发票号码</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>购买方</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>发票不含税金额</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>发票含税金额</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>开票日期</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>对账单号</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>

--- a/SCF/files/导入发票模板_new.xlsx
+++ b/SCF/files/导入发票模板_new.xlsx
@@ -1222,12 +1222,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2563471980</t>
+          <t>4175069238</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>01639275</t>
+          <t>43102975</t>
         </is>
       </c>
       <c r="D3" s="15" t="n">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>724583</t>
+          <t>843651</t>
         </is>
       </c>
       <c r="H3" s="20" t="inlineStr">
         <is>
-          <t>20684</t>
+          <t>25082</t>
         </is>
       </c>
     </row>

--- a/SCF/files/导入发票模板_new.xlsx
+++ b/SCF/files/导入发票模板_new.xlsx
@@ -1222,12 +1222,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>4175069238</t>
+          <t>6915240837</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>43102975</t>
+          <t>63802594</t>
         </is>
       </c>
       <c r="D3" s="15" t="n">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>843651</t>
+          <t>562314</t>
         </is>
       </c>
       <c r="H3" s="20" t="inlineStr">
         <is>
-          <t>25082</t>
+          <t>26537</t>
         </is>
       </c>
     </row>

--- a/SCF/files/导入发票模板_new.xlsx
+++ b/SCF/files/导入发票模板_new.xlsx
@@ -1222,12 +1222,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>6915240837</t>
+          <t>4081795263</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>63802594</t>
+          <t>82407619</t>
         </is>
       </c>
       <c r="D3" s="15" t="n">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>562314</t>
+          <t>496825</t>
         </is>
       </c>
       <c r="H3" s="20" t="inlineStr">
         <is>
-          <t>26537</t>
+          <t>66537</t>
         </is>
       </c>
     </row>

--- a/SCF/files/导入发票模板_new.xlsx
+++ b/SCF/files/导入发票模板_new.xlsx
@@ -1222,12 +1222,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>4081795263</t>
+          <t>6412793508</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>82407619</t>
+          <t>23185697</t>
         </is>
       </c>
       <c r="D3" s="15" t="n">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>496825</t>
+          <t>835169</t>
         </is>
       </c>
       <c r="H3" s="20" t="inlineStr">
         <is>
-          <t>66537</t>
+          <t>40158</t>
         </is>
       </c>
     </row>

--- a/SCF/files/导入发票模板_new.xlsx
+++ b/SCF/files/导入发票模板_new.xlsx
@@ -1222,12 +1222,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>6412793508</t>
+          <t>4780621953</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>23185697</t>
+          <t>12308497</t>
         </is>
       </c>
       <c r="D3" s="15" t="n">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>835169</t>
+          <t>729640</t>
         </is>
       </c>
       <c r="H3" s="20" t="inlineStr">
         <is>
-          <t>40158</t>
+          <t>85096</t>
         </is>
       </c>
     </row>

--- a/SCF/files/导入发票模板_new.xlsx
+++ b/SCF/files/导入发票模板_new.xlsx
@@ -1222,12 +1222,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>4780621953</t>
+          <t>8316274590</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>12308497</t>
+          <t>76985320</t>
         </is>
       </c>
       <c r="D3" s="15" t="n">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>729640</t>
+          <t>794516</t>
         </is>
       </c>
       <c r="H3" s="20" t="inlineStr">
         <is>
-          <t>85096</t>
+          <t>37630</t>
         </is>
       </c>
     </row>
